--- a/Proyectos/2016/1/P1444 - CFCAMU, Rosa Marquez_AG/Planeación/Plan_de_proyecto.xlsx
+++ b/Proyectos/2016/1/P1444 - CFCAMU, Rosa Marquez_AG/Planeación/Plan_de_proyecto.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Presentación" sheetId="1" r:id="rId1"/>
@@ -643,15 +643,6 @@
     <t>alma.garcia@sos-soft.com</t>
   </si>
   <si>
-    <t>Roles Equipo &lt;Irmalu Hinojosa&gt;</t>
-  </si>
-  <si>
-    <t>Irmalu Hinojosa</t>
-  </si>
-  <si>
-    <t>forevercom11@gmail.com</t>
-  </si>
-  <si>
     <t>Alma García</t>
   </si>
   <si>
@@ -680,6 +671,15 @@
   </si>
   <si>
     <t>francisco.llamas@sos-soft.com</t>
+  </si>
+  <si>
+    <t>Rosa marquez</t>
+  </si>
+  <si>
+    <t>Roles Equipo &lt;Rosa Marquez&gt;</t>
+  </si>
+  <si>
+    <t>quetzalcoalt_7@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -689,7 +689,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -836,6 +836,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF535C69"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="17">
@@ -1279,7 +1286,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1632,6 +1639,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -2348,7 +2356,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="145" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C3" s="145"/>
     </row>
@@ -2382,7 +2390,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="144" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C7" s="144"/>
     </row>
@@ -2400,7 +2408,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="146" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C9" s="146"/>
     </row>
@@ -4705,7 +4713,7 @@
     </row>
     <row r="26" spans="1:4" ht="53.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="151" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B26" s="151"/>
       <c r="C26" s="10"/>
@@ -4718,7 +4726,7 @@
     </row>
     <row r="28" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="148" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B28" s="149"/>
     </row>
@@ -4736,6 +4744,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
@@ -4745,11 +4758,6 @@
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A28" r:id="rId1"/>
@@ -4763,8 +4771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4851,13 +4859,13 @@
         <v>51</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C6" s="143" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D6" s="143" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E6" s="28" t="s">
         <v>52</v>
@@ -4930,7 +4938,7 @@
     </row>
     <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
@@ -4942,13 +4950,13 @@
         <v>65</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="C13" s="25">
-        <v>528183316566</v>
-      </c>
-      <c r="D13" s="142" t="s">
-        <v>162</v>
+        <v>170</v>
+      </c>
+      <c r="C13" s="153">
+        <v>3336438235</v>
+      </c>
+      <c r="D13" s="143" t="s">
+        <v>172</v>
       </c>
       <c r="E13" s="31" t="s">
         <v>66</v>
@@ -4958,7 +4966,7 @@
       <c r="A14" s="25"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
+      <c r="D14" s="143"/>
       <c r="E14" s="25"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5008,9 +5016,9 @@
     <hyperlink ref="D9" r:id="rId3"/>
     <hyperlink ref="D4" r:id="rId4"/>
     <hyperlink ref="D5" r:id="rId5"/>
-    <hyperlink ref="D13" r:id="rId6"/>
-    <hyperlink ref="C6" r:id="rId7" display="callto:3316367365"/>
-    <hyperlink ref="D6" r:id="rId8" display="mailto:francisco.llamas@sos-soft.com"/>
+    <hyperlink ref="C6" r:id="rId6" display="callto:3316367365"/>
+    <hyperlink ref="D6" r:id="rId7" display="mailto:francisco.llamas@sos-soft.com"/>
+    <hyperlink ref="D13" r:id="rId8" tooltip="quetzalcoalt_7@hotmail.com" display="mailto:quetzalcoalt_7@hotmail.com?cc=info%40sos-soft.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" firstPageNumber="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId9"/>
@@ -9317,10 +9325,10 @@
         <v>79</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D5" s="46" t="s">
         <v>80</v>
@@ -9334,10 +9342,10 @@
         <v>82</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D6" s="46" t="s">
         <v>83</v>
@@ -9354,7 +9362,7 @@
         <v>58</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D7" s="46" t="s">
         <v>85</v>
@@ -9664,7 +9672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:JA43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
